--- a/Computational_Data/Overview_Energies/DFT_Energies.xlsx
+++ b/Computational_Data/Overview_Energies/DFT_Energies.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Overview_Energies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D284BE-7B2B-C343-9836-08EAC0D15A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="0" windowWidth="22160" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="18480" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,9 +48,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Relative Energy (kcal/mol)</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -189,9 +192,6 @@
     <t>[$\bf{A}$]S$_{0}$</t>
   </si>
   <si>
-    <t>[$\bf{A}$]S$_{n}$</t>
-  </si>
-  <si>
     <t>[$\bf{B}$]T$_{0}$</t>
   </si>
   <si>
@@ -235,12 +235,18 @@
   </si>
   <si>
     <t>[$\bf{F}$]S$_{0}$;[$\bf{D}$]T$_{0}$</t>
+  </si>
+  <si>
+    <t>[$\bf{A}$]S$_{1-6}$</t>
+  </si>
+  <si>
+    <t>Relative Energy (kJ/mol)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -329,6 +335,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -653,20 +667,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -686,42 +700,42 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>-3110.0305337999998</v>
@@ -736,32 +750,32 @@
         <v>1.0192289999999999</v>
       </c>
       <c r="G2" s="4">
-        <f>(D2-$D$2)*627.5095</f>
+        <f>(D2-$D$2)*2625.5</f>
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -769,42 +783,44 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
-        <v>70</v>
+        <f>70*4.184</f>
+        <v>292.88</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="K3" s="4">
+        <f>7*4.184</f>
+        <v>29.288</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>-3109.9366064599999</v>
@@ -819,40 +835,41 @@
         <v>1.008993</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4" si="0">(D4-$D$2)*627.5095</f>
-        <v>52.51711091764173</v>
+        <f>(D4-$D$2)*2625.5</f>
+        <v>219.73161316963069</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="K4" s="4">
-        <v>-7</v>
+        <f>-7*4.184</f>
+        <v>-29.288</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -860,32 +877,32 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <f>G4+59.277</f>
-        <v>111.79411091764173</v>
+        <f>G4+(59.277*4.184)</f>
+        <v>467.7465811696307</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -894,34 +911,34 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4">
         <f>(G5+G7)/2</f>
-        <v>100.10752192037535</v>
+        <v>418.84990001433198</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>-3109.8762130800001</v>
@@ -936,43 +953,44 @@
         <v>1.005816</v>
       </c>
       <c r="G7" s="4">
-        <f>(D7-$D$2)*627.5095</f>
-        <v>88.42093292310895</v>
+        <f>(D7-$D$2)*2625.5</f>
+        <v>369.95321885903331</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="4">
         <v>0.06</v>
       </c>
       <c r="K7" s="4">
-        <v>-4</v>
+        <f>-4*4.184</f>
+        <v>-16.736000000000001</v>
       </c>
       <c r="L7" s="4">
         <v>-0.2</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>-3109.8475643199999</v>
@@ -987,43 +1005,44 @@
         <v>0.99894400000000005</v>
       </c>
       <c r="G8" s="4">
-        <f>(D8-$D$2)*627.5095</f>
-        <v>102.08605670245035</v>
+        <f>(D8-$D$2)*2625.5</f>
+        <v>427.12810223954125</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="4">
         <v>5.5E-2</v>
       </c>
       <c r="K8" s="4">
-        <v>8.5</v>
+        <f>13*4.184</f>
+        <v>54.392000000000003</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>-3109.8726963300001</v>
@@ -1038,43 +1057,44 @@
         <v>1.0012019999999999</v>
       </c>
       <c r="G9" s="4">
-        <f>(D9-$D$2)*627.5095</f>
-        <v>87.732398124278021</v>
+        <f>(D9-$D$2)*2625.5</f>
+        <v>367.0723889842177</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K9" s="4">
-        <v>-12</v>
+        <f>-16*4.184</f>
+        <v>-66.944000000000003</v>
       </c>
       <c r="L9" s="4">
         <v>-0.1</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <v>-1630.0490283199999</v>
@@ -1089,35 +1109,35 @@
         <v>0.48947600000000002</v>
       </c>
       <c r="G10" s="4">
-        <f>((D10+D15)-D9)*627.5095+G9</f>
-        <v>83.983060237470013</v>
+        <f>((D10+D15)-D9)*2625.5+G9</f>
+        <v>351.38515776012559</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>-1630.0490120500001</v>
@@ -1127,34 +1147,34 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4">
         <f>G10</f>
-        <v>83.983060237470013</v>
+        <v>351.38515776012559</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>-1630.0349033699999</v>
@@ -1163,43 +1183,44 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <f>(C12-C11)*627.5095+G11</f>
-        <v>92.83639097003234</v>
+        <f>(C12-C11)*2625.5+G11</f>
+        <v>388.42749710055375</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K12" s="4">
-        <v>-2</v>
+        <f>-1*4.184</f>
+        <v>-4.1840000000000002</v>
       </c>
       <c r="L12" s="4">
         <v>-0.2</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>-1479.80012425</v>
@@ -1214,43 +1235,44 @@
         <v>0.48743399999999998</v>
       </c>
       <c r="G13" s="5">
-        <f>((D13+D14)-D10)*627.5095+G10</f>
-        <v>86.00798319312274</v>
+        <f>((D13+D14)-D10)*2625.5+G10</f>
+        <v>359.85743621976042</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K13" s="4">
-        <v>-12</v>
+        <f>-17*4.184</f>
+        <v>-71.128</v>
       </c>
       <c r="L13" s="4">
         <v>-0.5</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>-150.22761414999999</v>
@@ -1266,42 +1288,43 @@
       </c>
       <c r="G14" s="5">
         <f>G13</f>
-        <v>86.00798319312274</v>
+        <v>359.85743621976042</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="4">
         <v>0.02</v>
       </c>
       <c r="K14" s="4">
-        <v>-1</v>
+        <f>-1*4.184</f>
+        <v>-4.1840000000000002</v>
       </c>
       <c r="L14" s="4">
         <v>0.4</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>-1479.8091329599999</v>
@@ -1316,38 +1339,39 @@
         <v>0.49121599999999999</v>
       </c>
       <c r="G15" s="6">
-        <f>((D15+D14)-D10)*627.5095+G10</f>
-        <v>82.728173014385206</v>
+        <f>((D15+D14)-D10)*2625.5+G10</f>
+        <v>346.13470911479169</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K15" s="4">
+        <f>0*4.184</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
         <v>-0.15</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1363,7 +1387,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1379,7 +1403,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1395,7 +1419,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1411,7 +1435,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1427,7 +1451,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>

--- a/Computational_Data/Overview_Energies/DFT_Energies.xlsx
+++ b/Computational_Data/Overview_Energies/DFT_Energies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Overview_Energies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D284BE-7B2B-C343-9836-08EAC0D15A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D679CEF-63CB-F44B-9214-B10C2B0C019C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="460" windowWidth="18480" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +852,7 @@
         <v>-29.288</v>
       </c>
       <c r="L4" s="4">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>49</v>
